--- a/background/ftpdir/预警室/2018/01/201801.xlsx
+++ b/background/ftpdir/预警室/2018/01/201801.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03协同开发\九楼值班显示平台\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git仓库\RegistrationSystem\background\ftpdir\预警室\2018\01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,13 +265,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,11 +586,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -599,10 +599,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -622,7 +622,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -644,7 +644,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>43071</v>
+        <v>43102</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>43072</v>
+        <v>43103</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>43073</v>
+        <v>43104</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>43074</v>
+        <v>43105</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>15</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>43075</v>
+        <v>43106</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>43076</v>
+        <v>43107</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>43077</v>
+        <v>43108</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>43078</v>
+        <v>43109</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>43079</v>
+        <v>43110</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>15</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>43080</v>
+        <v>43111</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>19</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <v>43081</v>
+        <v>43112</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>43082</v>
+        <v>43113</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>19</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>43083</v>
+        <v>43114</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>19</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>43084</v>
+        <v>43115</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>19</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>43085</v>
+        <v>43116</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>19</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
-        <v>43086</v>
+        <v>43117</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>19</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
-        <v>43087</v>
+        <v>43118</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>21</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>43088</v>
+        <v>43119</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>21</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>43089</v>
+        <v>43120</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>21</v>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>43090</v>
+        <v>43121</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>21</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>43091</v>
+        <v>43122</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>21</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>43092</v>
+        <v>43123</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>21</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>43093</v>
+        <v>43124</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>21</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>43094</v>
+        <v>43125</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>24</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>43095</v>
+        <v>43126</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>24</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>43096</v>
+        <v>43127</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>24</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>43097</v>
+        <v>43128</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>24</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>43098</v>
+        <v>43129</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>24</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>43099</v>
+        <v>43130</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>24</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>43100</v>
+        <v>43131</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>24</v>

--- a/background/ftpdir/预警室/2018/01/201801.xlsx
+++ b/background/ftpdir/预警室/2018/01/201801.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24135" windowHeight="12780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24135" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="值班审批表" sheetId="22" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="29">
   <si>
     <t>年  月  日</t>
   </si>
@@ -95,9 +95,6 @@
     <t>邢闯</t>
   </si>
   <si>
-    <t>刘琼</t>
-  </si>
-  <si>
     <t>刘秋兴</t>
   </si>
   <si>
@@ -107,14 +104,35 @@
     <t>付翔</t>
   </si>
   <si>
+    <t>赵倩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>刘煜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王安良</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">王娟娟 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王娟娟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王娟娟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -172,6 +190,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -273,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -315,6 +340,9 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -693,11 +721,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -771,7 +799,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -1036,7 +1064,7 @@
         <v>17</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1059,10 +1087,10 @@
         <v>17</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>43114</v>
       </c>
@@ -1082,15 +1110,15 @@
         <v>17</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>43115</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>10</v>
@@ -1105,15 +1133,15 @@
         <v>17</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
         <v>43116</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>8</v>
@@ -1128,15 +1156,15 @@
         <v>17</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15">
         <v>43117</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>19</v>
@@ -1151,15 +1179,15 @@
         <v>17</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15">
         <v>43118</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>9</v>
@@ -1174,15 +1202,15 @@
         <v>17</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>43119</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>13</v>
@@ -1194,18 +1222,18 @@
         <v>9</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>43120</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>14</v>
@@ -1217,18 +1245,18 @@
         <v>13</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>43121</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>15</v>
@@ -1240,18 +1268,18 @@
         <v>14</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>43122</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>16</v>
@@ -1263,18 +1291,18 @@
         <v>15</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>43123</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>10</v>
@@ -1286,18 +1314,19 @@
         <v>16</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>43124</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>8</v>
@@ -1309,18 +1338,20 @@
         <v>10</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>43125</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>19</v>
@@ -1328,22 +1359,24 @@
       <c r="D28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>8</v>
+      <c r="E28" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>43126</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>9</v>
@@ -1355,18 +1388,20 @@
         <v>19</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>43127</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>13</v>
@@ -1378,18 +1413,19 @@
         <v>9</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>43128</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>14</v>
@@ -1401,13 +1437,13 @@
         <v>13</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>43129</v>
       </c>
@@ -1424,10 +1460,10 @@
         <v>14</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1447,10 +1483,10 @@
         <v>15</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1464,16 +1500,16 @@
         <v>10</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1502,8 +1538,8 @@
       <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
       <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1519,13 +1555,13 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.98" bottom="0.87" header="0.51" footer="0.51"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1542,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1559,7 +1595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1576,7 +1612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1593,7 +1629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1610,7 +1646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1627,7 +1663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1661,7 +1697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1678,7 +1714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1695,7 +1731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/background/ftpdir/预警室/2018/01/201801.xlsx
+++ b/background/ftpdir/预警室/2018/01/201801.xlsx
@@ -26,14 +26,14 @@
     <sheet name="Sheet16" sheetId="16" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">值班审批表!$A$1:$G$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">值班审批表!$A$2:$G$41</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="30">
   <si>
     <t>年  月  日</t>
   </si>
@@ -125,6 +125,10 @@
   </si>
   <si>
     <t>王娟娟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预警室</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -722,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -738,97 +742,94 @@
     <col min="7" max="7" width="7.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15">
-        <v>43101</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>12</v>
-      </c>
+    <row r="4" spans="1:7" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
-        <v>43102</v>
+        <v>43101</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>11</v>
@@ -839,19 +840,19 @@
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15">
-        <v>43103</v>
+        <v>43102</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>11</v>
@@ -862,19 +863,19 @@
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15">
-        <v>43104</v>
+        <v>43103</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>11</v>
@@ -885,42 +886,42 @@
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15">
-        <v>43105</v>
+        <v>43104</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15">
-        <v>43106</v>
+        <v>43105</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>12</v>
@@ -931,19 +932,19 @@
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15">
-        <v>43107</v>
+        <v>43106</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>12</v>
@@ -954,19 +955,19 @@
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
-        <v>43108</v>
+        <v>43107</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>12</v>
@@ -977,19 +978,19 @@
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
-        <v>43109</v>
+        <v>43108</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
@@ -1000,19 +1001,19 @@
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
-        <v>43110</v>
+        <v>43109</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>12</v>
@@ -1023,19 +1024,19 @@
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
-        <v>43111</v>
+        <v>43110</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>12</v>
@@ -1046,42 +1047,42 @@
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
-        <v>43112</v>
+        <v>43111</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
-        <v>43113</v>
+        <v>43112</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>17</v>
@@ -1092,19 +1093,19 @@
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
-        <v>43114</v>
+        <v>43113</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>17</v>
@@ -1115,19 +1116,19 @@
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
-        <v>43115</v>
+        <v>43114</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>17</v>
@@ -1138,19 +1139,19 @@
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
-        <v>43116</v>
+        <v>43115</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>17</v>
@@ -1161,19 +1162,19 @@
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15">
-        <v>43117</v>
+        <v>43116</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>17</v>
@@ -1184,65 +1185,65 @@
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15">
-        <v>43118</v>
+        <v>43117</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
-        <v>43119</v>
+        <v>43118</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E22" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
-        <v>43120</v>
+        <v>43119</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="E23" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>23</v>
@@ -1253,19 +1254,19 @@
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
-        <v>43121</v>
+        <v>43120</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>23</v>
@@ -1276,19 +1277,19 @@
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
-        <v>43122</v>
+        <v>43121</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>23</v>
@@ -1299,19 +1300,19 @@
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
-        <v>43123</v>
+        <v>43122</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="E26" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>23</v>
@@ -1319,23 +1320,22 @@
       <c r="G26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
-        <v>43124</v>
+        <v>43123</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="E27" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>23</v>
@@ -1343,24 +1343,23 @@
       <c r="G27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
-        <v>43125</v>
+        <v>43124</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>27</v>
+      <c r="E28" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>23</v>
@@ -1373,44 +1372,44 @@
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
-        <v>43126</v>
+        <v>43125</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>19</v>
+      <c r="E29" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
-        <v>43127</v>
+        <v>43126</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E30" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>24</v>
@@ -1419,22 +1418,23 @@
         <v>25</v>
       </c>
       <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
-        <v>43128</v>
+        <v>43127</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="E31" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>24</v>
@@ -1442,22 +1442,23 @@
       <c r="G31" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
-        <v>43129</v>
+        <v>43128</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E32" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>24</v>
@@ -1468,19 +1469,19 @@
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
-        <v>43130</v>
+        <v>43129</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="E33" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>24</v>
@@ -1491,19 +1492,19 @@
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
-        <v>43131</v>
+        <v>43130</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="E34" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>24</v>
@@ -1512,24 +1513,38 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7"/>
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="15">
+        <v>43131</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1537,20 +1552,29 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
+    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="G41" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
